--- a/data/trans_dic/P79$impuestos_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P79$impuestos_2023-Clase-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.005573535491857577</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.007044127619458699</v>
+        <v>0.007044127619458698</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.006262198552263308</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.001360337239562844</v>
+        <v>0.001355347716121128</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.002813152166450599</v>
+        <v>0.002129226884261259</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.002780185748784857</v>
+        <v>0.002536861976011539</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01558114565591277</v>
+        <v>0.01572736870270885</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01728806109980461</v>
+        <v>0.01890410245480949</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01301237536529215</v>
+        <v>0.01152034323176051</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.005056599990061153</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.00441013035077079</v>
+        <v>0.004410130350770791</v>
       </c>
     </row>
     <row r="8">
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.001667852816141189</v>
+        <v>0.001651684695585384</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.001581421983282231</v>
+        <v>0.001584207568791698</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01185845343978719</v>
+        <v>0.0132823694889978</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01451318324528926</v>
+        <v>0.01370340908679134</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01002008828576089</v>
+        <v>0.01030490449408543</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.01924130077276413</v>
+        <v>0.01924130077276414</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.01386711002281385</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.008910283833746546</v>
+        <v>0.009043304723722044</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.003898958405078899</v>
+        <v>0.003335962183610498</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.009403373289274656</v>
+        <v>0.009289154504876915</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03778336451724394</v>
+        <v>0.0371861219310224</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03288962125801374</v>
+        <v>0.0348704859905749</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02975606526413175</v>
+        <v>0.02952803030925668</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.009679557923402768</v>
+        <v>0.009666522395416165</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.005519673631923067</v>
+        <v>0.005152116536091974</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.008789372053831856</v>
+        <v>0.009005572444717107</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02665470073977247</v>
+        <v>0.02580455055384572</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01799531746180284</v>
+        <v>0.01746720910352691</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01955706019865402</v>
+        <v>0.02031053344828023</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
         <v>0.02082942191158349</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.02077584940065821</v>
+        <v>0.02077584940065822</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01116347509625549</v>
+        <v>0.009699555395161418</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0132470546488711</v>
+        <v>0.01353477324975004</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01412706853856403</v>
+        <v>0.01454478717135261</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03629136951514535</v>
+        <v>0.03667125696074362</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02978844271996779</v>
+        <v>0.03017458596587645</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02950324809221128</v>
+        <v>0.02859597712845748</v>
       </c>
     </row>
     <row r="19">
@@ -842,7 +842,7 @@
         <v>0.01147604110013665</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.01346063505310941</v>
+        <v>0.0134606350531094</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.01304258556441538</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.007385438278151358</v>
+        <v>0.007403285887471414</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.006995790961631204</v>
+        <v>0.007091547911065589</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.05616585505870417</v>
+        <v>0.05901266541092828</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.02442880824181497</v>
+        <v>0.02512284634987976</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.02456797278399862</v>
+        <v>0.02404279094642064</v>
       </c>
     </row>
     <row r="22">
@@ -900,7 +900,7 @@
         <v>0.01247158116379331</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.0129498098857519</v>
+        <v>0.01294980988575191</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.00970515809035322</v>
+        <v>0.009752869646126958</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.009438901632451695</v>
+        <v>0.009645095798593203</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01047632092425626</v>
+        <v>0.01041693613475723</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01814366472048561</v>
+        <v>0.01780227682549215</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.01645231677760521</v>
+        <v>0.01639224560529237</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.01576425508161527</v>
+        <v>0.01604167989624812</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1350</v>
+        <v>1022</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2849</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>8491</v>
+        <v>8570</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>8297</v>
+        <v>9073</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>13336</v>
+        <v>11807</v>
       </c>
     </row>
     <row r="8">
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1415</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5651</v>
+        <v>6330</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>6073</v>
+        <v>5735</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>8968</v>
+        <v>9223</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4102</v>
+        <v>4163</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>723</v>
+        <v>618</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>6072</v>
+        <v>5998</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>17393</v>
+        <v>17118</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6097</v>
+        <v>6464</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>19214</v>
+        <v>19067</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>10740</v>
+        <v>10726</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>4567</v>
+        <v>4263</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>17025</v>
+        <v>17444</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>29575</v>
+        <v>28632</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>14890</v>
+        <v>14453</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>37882</v>
+        <v>39342</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>5954</v>
+        <v>5173</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>10560</v>
+        <v>10790</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>18796</v>
+        <v>19352</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>19355</v>
+        <v>19558</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>23747</v>
+        <v>24054</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>39254</v>
+        <v>38047</v>
       </c>
     </row>
     <row r="24">
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>5886</v>
+        <v>5901</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>7064</v>
+        <v>7160</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>11946</v>
+        <v>12552</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>19470</v>
+        <v>20024</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>24807</v>
+        <v>24276</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>32390</v>
+        <v>32549</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>33087</v>
+        <v>33810</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>71688</v>
+        <v>71281</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>60553</v>
+        <v>59413</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>57672</v>
+        <v>57461</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>107872</v>
+        <v>109770</v>
       </c>
     </row>
     <row r="32">
